--- a/OSL light setup.xlsx
+++ b/OSL light setup.xlsx
@@ -170,6 +170,9 @@
     <t>Headlight 1</t>
   </si>
   <si>
+    <t>XENON</t>
+  </si>
+  <si>
     <t>// light 5</t>
   </si>
   <si>
@@ -357,9 +360,6 @@
   </si>
   <si>
     <t>* Will dim to the level set in UserConfig.h</t>
-  </si>
-  <si>
-    <t>XENON</t>
   </si>
   <si>
     <t>* Turns a light on but with a special effect that looks like a xenon bulb turning on</t>
@@ -1411,7 +1411,7 @@
         <v>26</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>113</v>
+        <v>50</v>
       </c>
       <c r="G2" s="15" t="s">
         <v>25</v>
@@ -1462,7 +1462,7 @@
     </row>
     <row r="3" ht="13.5" customHeight="1">
       <c r="A3" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>26</v>
@@ -1714,7 +1714,7 @@
         <v>// light 5 - Left Turn</v>
       </c>
       <c r="S6" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T6" s="16"/>
       <c r="U6" s="16"/>
@@ -1780,7 +1780,7 @@
         <v>// light 6 - Reverse</v>
       </c>
       <c r="S7" s="15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T7" s="16"/>
       <c r="U7" s="16"/>
@@ -1846,7 +1846,7 @@
         <v>// light 7 - Muffler</v>
       </c>
       <c r="S8" s="15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T8" s="16"/>
       <c r="U8" s="16"/>
@@ -1912,7 +1912,7 @@
         <v>// light 8 - Backup</v>
       </c>
       <c r="S9" s="15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="T9" s="16"/>
       <c r="U9" s="16"/>
@@ -2114,10 +2114,10 @@
     </row>
     <row r="15" ht="13.5" customHeight="1">
       <c r="A15" s="15" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
@@ -2189,7 +2189,7 @@
         <v>32</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
@@ -2221,10 +2221,10 @@
     </row>
     <row r="18" ht="13.5" customHeight="1">
       <c r="A18" s="15" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
@@ -2256,10 +2256,10 @@
     </row>
     <row r="19" ht="13.5" customHeight="1">
       <c r="A19" s="15" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
@@ -2291,10 +2291,10 @@
     </row>
     <row r="20" ht="13.5" customHeight="1">
       <c r="A20" s="15" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
@@ -2326,7 +2326,7 @@
     </row>
     <row r="21" ht="13.5" customHeight="1">
       <c r="A21" s="15" t="s">
-        <v>113</v>
+        <v>50</v>
       </c>
       <c r="B21" s="17" t="s">
         <v>114</v>
@@ -3155,7 +3155,7 @@
         <v>128</v>
       </c>
       <c r="R6" s="11" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="S6" s="1" t="s">
         <v>25</v>
@@ -3187,29 +3187,29 @@
       <c r="AB6" s="1"/>
       <c r="AC6" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>{128,ON,NA,NA,NA,NA,NA,NA,NA,NA,NA},</v>
+        <v>{128,XENON,NA,NA,NA,NA,NA,NA,NA,NA,NA},</v>
       </c>
       <c r="AD6" s="9" t="str">
         <f t="shared" si="10"/>
         <v>// light 5 - Headlight 1</v>
       </c>
       <c r="AE6" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AF6">
         <v>7.0</v>
       </c>
       <c r="AG6" s="12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AH6" s="12">
         <v>5.0</v>
       </c>
       <c r="AI6" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AJ6" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AK6" s="5"/>
       <c r="AL6" s="5"/>
@@ -3221,7 +3221,7 @@
     </row>
     <row r="7" ht="13.5" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>26</v>
@@ -3241,11 +3241,11 @@
       <c r="G7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="11" t="s">
         <v>27</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="J7" s="1">
         <f t="shared" si="1"/>
@@ -3273,14 +3273,14 @@
       </c>
       <c r="P7" s="1">
         <f t="shared" si="7"/>
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="1">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="R7" s="11" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="S7" s="1" t="s">
         <v>25</v>
@@ -3312,29 +3312,29 @@
       <c r="AB7" s="1"/>
       <c r="AC7" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>{64,ON,NA,NA,NA,NA,NA,NA,NA,NA,NA},</v>
+        <v>{128,XENON,NA,NA,NA,NA,NA,NA,NA,NA,NA},</v>
       </c>
       <c r="AD7" s="9" t="str">
         <f t="shared" si="10"/>
         <v>// light 6 - Headlight 2</v>
       </c>
       <c r="AE7" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AF7">
         <v>8.0</v>
       </c>
       <c r="AG7" s="12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AH7" s="12">
         <v>3.0</v>
       </c>
       <c r="AI7" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AJ7" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK7" s="5"/>
       <c r="AL7" s="5"/>
@@ -3346,7 +3346,7 @@
     </row>
     <row r="8" ht="13.5" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>26</v>
@@ -3444,7 +3444,7 @@
         <v>// light 7 - Low Fog Front</v>
       </c>
       <c r="AE8" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AF8">
         <v>12.0</v>
@@ -3456,15 +3456,15 @@
         <v>15.0</v>
       </c>
       <c r="AI8" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AJ8" s="6"/>
       <c r="AK8" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AL8" s="5"/>
       <c r="AM8" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AN8" s="5" t="str">
         <f t="shared" si="11"/>
@@ -3473,7 +3473,7 @@
     </row>
     <row r="9" ht="13.5" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>26</v>
@@ -3571,7 +3571,7 @@
         <v>// light 8 - High Fog Front</v>
       </c>
       <c r="AE9" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AF9">
         <v>13.0</v>
@@ -3583,15 +3583,15 @@
         <v>16.0</v>
       </c>
       <c r="AI9" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AJ9" s="6"/>
       <c r="AK9" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AL9" s="5"/>
       <c r="AM9" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AN9" s="5" t="str">
         <f t="shared" si="11"/>
@@ -3600,7 +3600,7 @@
     </row>
     <row r="10">
       <c r="A10" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>26</v>
@@ -3698,22 +3698,22 @@
         <v>// light 9  - Rear Fog</v>
       </c>
       <c r="AE10" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF10">
         <v>46.0</v>
       </c>
       <c r="AG10" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AH10" s="13">
         <v>0.0</v>
       </c>
       <c r="AI10" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ10" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK10" s="6"/>
       <c r="AL10" s="6"/>
@@ -3725,7 +3725,7 @@
     </row>
     <row r="11">
       <c r="A11" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>26</v>
@@ -3784,7 +3784,7 @@
         <v>0</v>
       </c>
       <c r="R11" s="11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S11" s="1" t="s">
         <v>25</v>
@@ -3823,28 +3823,28 @@
         <v>// light 10  - Emergency</v>
       </c>
       <c r="AE11" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AF11">
         <v>5.0</v>
       </c>
       <c r="AG11" s="13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AH11" s="13">
         <v>1.0</v>
       </c>
       <c r="AI11" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AJ11" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AK11" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL11" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM11" s="6"/>
       <c r="AN11" s="5" t="str">
@@ -3854,7 +3854,7 @@
     </row>
     <row r="12">
       <c r="A12" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>26</v>
@@ -3952,22 +3952,22 @@
         <v>// light 11 - Emergency Trailer</v>
       </c>
       <c r="AE12" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AF12">
         <v>17.0</v>
       </c>
       <c r="AG12" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH12" s="13">
         <v>7.0</v>
       </c>
       <c r="AI12" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AJ12" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AK12" s="6"/>
       <c r="AL12" s="6"/>
@@ -3979,7 +3979,7 @@
     </row>
     <row r="13">
       <c r="A13" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>27</v>
@@ -4077,28 +4077,28 @@
         <v>// light 12 - Extra lights 1</v>
       </c>
       <c r="AE13" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AF13">
         <v>45.0</v>
       </c>
       <c r="AG13" s="14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH13" s="13">
         <v>8.0</v>
       </c>
       <c r="AI13" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AJ13" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AK13" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AL13" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM13" s="6"/>
       <c r="AN13" s="5" t="str">
@@ -4145,13 +4145,13 @@
         <v>46</v>
       </c>
       <c r="AJ14" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AK14" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AL14" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM14" s="6"/>
       <c r="AN14" s="6"/>
@@ -4192,15 +4192,15 @@
       <c r="AG15" s="6"/>
       <c r="AH15" s="6"/>
       <c r="AI15" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AJ15" s="6"/>
       <c r="AK15" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL15" s="6"/>
       <c r="AM15" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AN15" s="6"/>
     </row>
@@ -4238,15 +4238,15 @@
       <c r="AG16" s="6"/>
       <c r="AH16" s="6"/>
       <c r="AI16" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AJ16" s="6"/>
       <c r="AK16" s="9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AL16" s="6"/>
       <c r="AM16" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AN16" s="6"/>
     </row>
@@ -4287,14 +4287,14 @@
         <v>29</v>
       </c>
       <c r="AJ17" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK17" s="6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AL17" s="6"/>
       <c r="AM17" s="6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AN17" s="6"/>
     </row>
@@ -4335,14 +4335,14 @@
         <v>34</v>
       </c>
       <c r="AJ18" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK18" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AL18" s="6"/>
       <c r="AM18" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AN18" s="6"/>
     </row>
@@ -4383,13 +4383,13 @@
         <v>40</v>
       </c>
       <c r="AJ19" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK19" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AL19" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM19" s="6"/>
       <c r="AN19" s="6"/>
@@ -4430,15 +4430,15 @@
       <c r="AG20" s="6"/>
       <c r="AH20" s="6"/>
       <c r="AI20" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AJ20" s="6"/>
       <c r="AK20" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AL20" s="6"/>
       <c r="AM20" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AN20" s="6"/>
     </row>
@@ -4478,22 +4478,22 @@
       <c r="AG21" s="6"/>
       <c r="AH21" s="6"/>
       <c r="AI21" s="6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AJ21" s="6"/>
       <c r="AK21" s="6"/>
       <c r="AL21" s="6"/>
       <c r="AM21" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AN21" s="6"/>
     </row>
     <row r="22">
       <c r="A22" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="9"/>
@@ -4579,7 +4579,7 @@
         <v>32</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="9"/>
@@ -4620,10 +4620,10 @@
     </row>
     <row r="25">
       <c r="A25" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="9"/>
@@ -4664,10 +4664,10 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="9"/>
@@ -4708,10 +4708,10 @@
     </row>
     <row r="27">
       <c r="A27" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="9"/>
@@ -4752,7 +4752,7 @@
     </row>
     <row r="28">
       <c r="A28" s="7" t="s">
-        <v>113</v>
+        <v>50</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>114</v>
@@ -5341,7 +5341,7 @@
         <v>150</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E6" t="s">
         <v>151</v>
@@ -5356,7 +5356,7 @@
         <v>152</v>
       </c>
       <c r="I6" s="23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J6" s="23" t="s">
         <v>153</v>
@@ -5475,7 +5475,7 @@
         <v>164</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E13" t="s">
         <v>151</v>
@@ -5486,7 +5486,7 @@
       <c r="G13" s="23"/>
       <c r="H13" s="23"/>
       <c r="I13" s="23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J13" s="23" t="s">
         <v>165</v>
@@ -6055,7 +6055,7 @@
         <v>234</v>
       </c>
       <c r="D40" s="25" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E40" t="s">
         <v>151</v>
@@ -6066,7 +6066,7 @@
       <c r="G40" s="23"/>
       <c r="H40" s="23"/>
       <c r="I40" s="23" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J40" s="23" t="s">
         <v>235</v>
@@ -7284,7 +7284,7 @@
       </c>
       <c r="E14" s="27"/>
       <c r="H14" s="27" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15">
@@ -7325,19 +7325,19 @@
     </row>
     <row r="18">
       <c r="A18" s="23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D18" s="27" t="s">
         <v>151</v>
       </c>
       <c r="E18" s="27"/>
       <c r="H18" s="27" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" s="27" t="s">
         <v>151</v>
